--- a/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_TAL_B.xlsx
+++ b/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_TAL_B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\Spring 2020\BioSTEAM\Bioindustrial-Park\biorefineries\TAL\analyses\full\parameter_distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E87BCF-9E26-4CDD-B47B-A81541BFB098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968E7073-BB2D-4A8D-AA1C-0D3475488E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -358,12 +358,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -393,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -404,6 +410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1295,68 +1302,68 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="C19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="6">
         <v>0.68</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="F19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="6">
         <f>0.8*E19</f>
         <v>0.54400000000000004</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3">
+      <c r="H19" s="6"/>
+      <c r="I19" s="6">
         <f>1.2*E19</f>
         <v>0.81600000000000006</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3" t="s">
+      <c r="J19" s="6"/>
+      <c r="K19" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="C20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="6">
         <v>76</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="F20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="6">
         <f>E20*0.8</f>
         <v>60.800000000000004</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3">
+      <c r="H20" s="6"/>
+      <c r="I20" s="6">
         <f>E20*1.2</f>
         <v>91.2</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3" t="s">
+      <c r="J20" s="6"/>
+      <c r="K20" s="6" t="s">
         <v>35</v>
       </c>
     </row>

--- a/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_TAL_B.xlsx
+++ b/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_TAL_B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\Spring 2020\BioSTEAM\Bioindustrial-Park\biorefineries\TAL\analyses\full\parameter_distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968E7073-BB2D-4A8D-AA1C-0D3475488E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89914FEC-F871-4B3D-AA72-C1B32BC986A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -693,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1089,17 +1089,17 @@
         <v>8</v>
       </c>
       <c r="E12" s="3">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="3">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">

--- a/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_TAL_B.xlsx
+++ b/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_TAL_B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\Spring 2020\BioSTEAM\Bioindustrial-Park\biorefineries\TAL\analyses\full\parameter_distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89914FEC-F871-4B3D-AA72-C1B32BC986A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B2E60F-076F-4AB4-BBA4-0BB608555FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -694,7 +694,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1315,19 +1315,19 @@
         <v>20</v>
       </c>
       <c r="E19" s="6">
-        <v>0.68</v>
+        <v>0.73</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G19" s="6">
         <f>0.8*E19</f>
-        <v>0.54400000000000004</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6">
         <f>1.2*E19</f>
-        <v>0.81600000000000006</v>
+        <v>0.876</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6" t="s">
@@ -1348,19 +1348,19 @@
         <v>12</v>
       </c>
       <c r="E20" s="6">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="6">
         <f>E20*0.8</f>
-        <v>60.800000000000004</v>
+        <v>54.400000000000006</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6">
         <f>E20*1.2</f>
-        <v>91.2</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6" t="s">

--- a/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_TAL_B.xlsx
+++ b/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_TAL_B.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\Spring 2020\BioSTEAM\Bioindustrial-Park\biorefineries\TAL\analyses\full\parameter_distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B2E60F-076F-4AB4-BBA4-0BB608555FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544C7D12-7D41-450D-A3A2-8CD14A4E1DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -693,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1253,7 +1253,7 @@
         <v>0.95</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="G17" s="3">
         <f>0.9*E17</f>
@@ -1576,7 +1576,7 @@
         <v>0.95</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="G27" s="3">
         <f>E27*0.8</f>

--- a/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_TAL_B.xlsx
+++ b/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_TAL_B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\Spring 2020\BioSTEAM\Bioindustrial-Park\biorefineries\TAL\analyses\full\parameter_distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544C7D12-7D41-450D-A3A2-8CD14A4E1DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92A31B3-414F-4536-A604-F2C6EEF70394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -693,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1259,7 +1259,10 @@
         <f>0.9*E17</f>
         <v>0.85499999999999998</v>
       </c>
-      <c r="H17" s="3"/>
+      <c r="H17" s="3">
+        <f>E17</f>
+        <v>0.95</v>
+      </c>
       <c r="I17" s="3">
         <v>1</v>
       </c>
@@ -1582,7 +1585,10 @@
         <f>E27*0.8</f>
         <v>0.76</v>
       </c>
-      <c r="H27" s="3"/>
+      <c r="H27" s="3">
+        <f>E27</f>
+        <v>0.95</v>
+      </c>
       <c r="I27" s="3">
         <v>1</v>
       </c>

--- a/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_TAL_B.xlsx
+++ b/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_TAL_B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\Spring 2020\BioSTEAM\Bioindustrial-Park\biorefineries\TAL\analyses\full\parameter_distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92A31B3-414F-4536-A604-F2C6EEF70394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C020F9-87E3-4FBE-9DDC-BC75F11C1C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -693,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1253,16 +1253,13 @@
         <v>0.95</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="G17" s="3">
-        <f>0.9*E17</f>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="H17" s="3">
-        <f>E17</f>
-        <v>0.95</v>
-      </c>
+        <f>1-2*(1-E17)</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="H17" s="3"/>
       <c r="I17" s="3">
         <v>1</v>
       </c>
@@ -1579,16 +1576,13 @@
         <v>0.95</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="G27" s="3">
-        <f>E27*0.8</f>
-        <v>0.76</v>
-      </c>
-      <c r="H27" s="3">
-        <f>E27</f>
-        <v>0.95</v>
-      </c>
+        <f>1-2*(1-E27)</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="H27" s="3"/>
       <c r="I27" s="3">
         <v>1</v>
       </c>

--- a/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_TAL_B.xlsx
+++ b/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_TAL_B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\Spring 2020\BioSTEAM\Bioindustrial-Park\biorefineries\TAL\analyses\full\parameter_distributions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\repository_clones\Bioindustrial-Park\biorefineries\TAL\analyses\full\parameter_distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C020F9-87E3-4FBE-9DDC-BC75F11C1C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7DD44A-7DC3-4CA8-B128-949C73937455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4100" yWindow="4100" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,9 +125,6 @@
     <t>Baseline</t>
   </si>
   <si>
-    <t>Load Statements</t>
-  </si>
-  <si>
     <t>g/L/h</t>
   </si>
   <si>
@@ -324,6 +321,9 @@
   </si>
   <si>
     <t>spec.desired_annual_production = x</t>
+  </si>
+  <si>
+    <t>Load statement</t>
   </si>
 </sst>
 </file>
@@ -694,20 +694,20 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:F17"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.77734375" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" width="40.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6328125" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" customWidth="1"/>
+    <col min="10" max="10" width="10.6328125" customWidth="1"/>
+    <col min="11" max="11" width="19.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -736,13 +736,13 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -770,12 +770,12 @@
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
@@ -784,13 +784,13 @@
         <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" s="3">
         <v>180</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" s="3">
         <v>120</v>
@@ -803,13 +803,13 @@
         <v>240</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -826,7 +826,7 @@
         <v>3.4500000000000003E-2</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="3">
         <v>2.76E-2</v>
@@ -839,10 +839,10 @@
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -859,7 +859,7 @@
         <v>0.27650000000000002</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" s="3">
         <v>0.21629999999999999</v>
@@ -872,10 +872,10 @@
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -892,7 +892,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="3">
         <v>6.7000000000000004E-2</v>
@@ -905,12 +905,12 @@
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
@@ -925,7 +925,7 @@
         <v>1.0105599999999999</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="3">
         <f>(0.35/0.38)*E7</f>
@@ -941,12 +941,12 @@
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
@@ -974,12 +974,12 @@
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
@@ -1005,12 +1005,12 @@
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>7</v>
@@ -1019,13 +1019,13 @@
         <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E10" s="3">
         <v>13385.197</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="3">
         <f>0.8*E10</f>
@@ -1041,12 +1041,12 @@
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
@@ -1072,12 +1072,12 @@
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>7</v>
@@ -1103,15 +1103,15 @@
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>27</v>
@@ -1133,18 +1133,18 @@
         <v>101.9</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>27</v>
@@ -1166,24 +1166,24 @@
         <v>14.909000000000001</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E15" s="3">
         <v>10</v>
@@ -1202,15 +1202,15 @@
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>27</v>
@@ -1233,15 +1233,15 @@
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>27</v>
@@ -1265,15 +1265,15 @@
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>27</v>
@@ -1298,15 +1298,15 @@
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>27</v>
@@ -1331,15 +1331,15 @@
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>27</v>
@@ -1364,21 +1364,21 @@
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E21" s="4">
         <v>0.12</v>
@@ -1397,15 +1397,15 @@
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>27</v>
@@ -1430,15 +1430,15 @@
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>27</v>
@@ -1463,15 +1463,15 @@
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>27</v>
@@ -1494,15 +1494,15 @@
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>27</v>
@@ -1525,15 +1525,15 @@
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>27</v>
@@ -1556,15 +1556,15 @@
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>27</v>
@@ -1588,15 +1588,15 @@
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>27</v>
@@ -1621,15 +1621,15 @@
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="B29" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>27</v>
@@ -1654,12 +1654,12 @@
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>14</v>
@@ -1674,7 +1674,7 @@
         <v>168</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G30" s="3">
         <v>134.4</v>
@@ -1687,10 +1687,10 @@
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>24</v>
       </c>
@@ -1720,12 +1720,12 @@
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>23</v>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_TAL_B.xlsx
+++ b/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_TAL_B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\repository_clones\Bioindustrial-Park\biorefineries\TAL\analyses\full\parameter_distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7DD44A-7DC3-4CA8-B128-949C73937455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB2148D-593F-4694-97F3-EC7D92E41DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="4100" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -693,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
